--- a/Assets/StreamingAssets/9_Lee.xlsx
+++ b/Assets/StreamingAssets/9_Lee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB53BCE-1B2D-9C4B-8A48-CE4B6A219B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2D6A9-E888-824B-AC8B-BFE0C0D8488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="3280" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="7140" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,22 +173,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huh? Don’t suspect me—I injured my leg! There’s no way I could be the killer!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Don’t worry, I know you’re innocent.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You arrived at the banquet hall early and didn’t leave at all during the dinner—I can vouch for that.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That’s a relief. Ask anything you like—I’ll answer truthfully.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When was the last time you saw the Lord?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>After Steward He came to inform me of the time and place, I headed out immediately.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My leg hadn’t healed yet, and Doctor Ran had just changed my bandages, so I wanted to arrive early and find a seat.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,7 +233,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It’s unlikely that stealing weapons was the killer’s motive, but the missing sabers are certainly an important clue.</t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It’s unlikely that stealing weapons was the killer’s motive, but the missing sabers are certainly an important clue.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh? Don’t suspect me——I injured my leg! There’s no way I could be the killer!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You arrived at the banquet hall early and didn’t leave at all during the dinner——I can vouch for that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That’s a relief. Ask anything you like——I’ll answer truthfully.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After Butler He came to inform me of the time and place, I headed out immediately.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -748,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -868,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -888,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -928,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -948,7 +948,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -988,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1008,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1028,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1068,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1088,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="22" spans="1:12" ht="51">
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
